--- a/Result/比較結果.xlsx
+++ b/Result/比較結果.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>現行</t>
   </si>
@@ -51,6 +51,9 @@
     <t>Case001\tb_userInfo_1.csv</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Case001\tb_userInfo_4.csv</t>
   </si>
   <si>
@@ -84,13 +87,16 @@
     <t>2020-01-01 00:00:00.000</t>
   </si>
   <si>
-    <t>5</t>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>no2</t>
   </si>
   <si>
-    <t>名前お朝香</t>
+    <t>Name2</t>
   </si>
   <si>
     <t>172.21.10.2</t>
@@ -102,6 +108,9 @@
     <t>no3</t>
   </si>
   <si>
+    <t>Name3</t>
+  </si>
+  <si>
     <t>172.21.10.3</t>
   </si>
   <si>
@@ -111,25 +120,10 @@
     <t>no4</t>
   </si>
   <si>
+    <t>Name4</t>
+  </si>
+  <si>
     <t>172.21.10.4</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Name1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Name2</t>
-  </si>
-  <si>
-    <t>Name3</t>
-  </si>
-  <si>
-    <t>Name4</t>
   </si>
 </sst>
 </file>
@@ -456,14 +450,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -512,13 +506,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -633,13 +627,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -688,13 +682,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -742,14 +736,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -798,13 +792,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -919,13 +913,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -974,13 +968,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1028,14 +1022,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>102</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -1084,13 +1078,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>102</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -1139,13 +1133,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>103</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1194,13 +1188,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>103</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1584,7 +1578,7 @@
         <f>=ROW()-5</f>
       </c>
       <c r="E10" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>7</v>
@@ -1596,13 +1590,13 @@
         <f>=ROW()-5</f>
       </c>
       <c r="C11" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6">
         <f>=ROW()-5</f>
       </c>
       <c r="E11" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>5</v>
@@ -1614,13 +1608,13 @@
         <f>=ROW()-5</f>
       </c>
       <c r="C12" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="6">
         <f>=ROW()-5</f>
       </c>
       <c r="E12" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>5</v>
@@ -1632,13 +1626,13 @@
         <f>=ROW()-5</f>
       </c>
       <c r="C13" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="6">
         <f>=ROW()-5</f>
       </c>
       <c r="E13" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>5</v>
@@ -1650,13 +1644,13 @@
         <f>=ROW()-5</f>
       </c>
       <c r="C14" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="6">
         <f>=ROW()-5</f>
       </c>
       <c r="E14" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>5</v>
@@ -1668,13 +1662,13 @@
         <f>=ROW()-5</f>
       </c>
       <c r="C15" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="14">
         <f>=ROW()-5</f>
       </c>
       <c r="E15" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>5</v>
@@ -1709,26 +1703,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" defaultColWidth="9.57"/>
+  <sheetFormatPr defaultRowHeight="13.5" defaultColWidth="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1" style="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1" style="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1" style="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1" style="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1" style="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1" style="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1" style="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1" style="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1" style="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1" style="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1" style="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1" style="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1" style="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1" style="1"/>
-    <col min="18" max="18" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="1" width="10.3" customWidth="1" style="1"/>
+    <col min="2" max="2" width="10.3" customWidth="1" style="1"/>
+    <col min="3" max="3" width="10.3" customWidth="1" style="1"/>
+    <col min="4" max="4" width="10.3" customWidth="1" style="1"/>
+    <col min="5" max="5" width="10.3" customWidth="1" style="1"/>
+    <col min="6" max="6" width="10.3" customWidth="1" style="1"/>
+    <col min="7" max="7" width="10.3" customWidth="1" style="1"/>
+    <col min="8" max="8" width="10.3" customWidth="1" style="1"/>
+    <col min="9" max="9" width="10.3" customWidth="1" style="1"/>
+    <col min="10" max="10" width="10.3" customWidth="1" style="1"/>
+    <col min="11" max="11" width="10.3" customWidth="1" style="1"/>
+    <col min="12" max="12" width="10.3" customWidth="1" style="1"/>
+    <col min="13" max="13" width="10.3" customWidth="1" style="1"/>
+    <col min="14" max="14" width="10.3" customWidth="1" style="1"/>
+    <col min="15" max="15" width="10.3" customWidth="1" style="1"/>
+    <col min="16" max="16" width="10.3" customWidth="1" style="1"/>
+    <col min="17" max="17" width="10.3" customWidth="1" style="1"/>
+    <col min="18" max="18" width="10.3" customWidth="1" style="1"/>
     <col min="19" max="19" width="9.140625" customWidth="1" style="1"/>
     <col min="20" max="20" width="9.140625" customWidth="1" style="1"/>
     <col min="21" max="21" width="9.140625" customWidth="1" style="1"/>
@@ -1758,7 +1752,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1774,733 +1768,404 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>21</v>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <f>=IF(A3=A8,TRUE,FALSE)</f>
-      </c>
-      <c r="B13" s="2">
-        <f>=IF(B3=B8,TRUE,FALSE)</f>
-      </c>
-      <c r="C13" s="2">
-        <f>=IF(C3=C8,TRUE,FALSE)</f>
-      </c>
-      <c r="D13" s="2">
-        <f>=IF(D3=D8,TRUE,FALSE)</f>
-      </c>
-      <c r="E13" s="2">
-        <f>=IF(E3=E8,TRUE,FALSE)</f>
-      </c>
-      <c r="F13" s="2">
-        <f>=IF(F3=F8,TRUE,FALSE)</f>
-      </c>
-      <c r="G13" s="2">
-        <f>=IF(G3=G8,TRUE,FALSE)</f>
-      </c>
-      <c r="H13" s="2">
-        <f>=IF(H3=H8,TRUE,FALSE)</f>
-      </c>
-      <c r="I13" s="2">
-        <f>=IF(I3=I8,TRUE,FALSE)</f>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <f>=IF(A4=A9,TRUE,FALSE)</f>
-      </c>
-      <c r="B14" s="2">
-        <f>=IF(B4=B9,TRUE,FALSE)</f>
-      </c>
-      <c r="C14" s="2">
-        <f>=IF(C4=C9,TRUE,FALSE)</f>
-      </c>
-      <c r="D14" s="2">
-        <f>=IF(D4=D9,TRUE,FALSE)</f>
-      </c>
-      <c r="E14" s="2">
-        <f>=IF(E4=E9,TRUE,FALSE)</f>
-      </c>
-      <c r="F14" s="2">
-        <f>=IF(F4=F9,TRUE,FALSE)</f>
-      </c>
-      <c r="G14" s="2">
-        <f>=IF(G4=G9,TRUE,FALSE)</f>
-      </c>
-      <c r="H14" s="2">
-        <f>=IF(H4=H9,TRUE,FALSE)</f>
-      </c>
-      <c r="I14" s="2">
-        <f>=IF(I4=I9,TRUE,FALSE)</f>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <f>=IF(A5=A10,TRUE,FALSE)</f>
-      </c>
-      <c r="B15" s="2">
-        <f>=IF(B5=B10,TRUE,FALSE)</f>
-      </c>
-      <c r="C15" s="2">
-        <f>=IF(C5=C10,TRUE,FALSE)</f>
-      </c>
-      <c r="D15" s="2">
-        <f>=IF(D5=D10,TRUE,FALSE)</f>
-      </c>
-      <c r="E15" s="2">
-        <f>=IF(E5=E10,TRUE,FALSE)</f>
-      </c>
-      <c r="F15" s="2">
-        <f>=IF(F5=F10,TRUE,FALSE)</f>
-      </c>
-      <c r="G15" s="2">
-        <f>=IF(G5=G10,TRUE,FALSE)</f>
-      </c>
-      <c r="H15" s="2">
-        <f>=IF(H5=H10,TRUE,FALSE)</f>
-      </c>
-      <c r="I15" s="2">
-        <f>=IF(I5=I10,TRUE,FALSE)</f>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
+      <c r="F16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <f>=IF(A7=A12,TRUE,FALSE)</f>
+      </c>
+      <c r="B17" s="2">
+        <f>=IF(B7=B12,TRUE,FALSE)</f>
+      </c>
+      <c r="C17" s="2">
+        <f>=IF(C7=C12,TRUE,FALSE)</f>
+      </c>
+      <c r="D17" s="2">
+        <f>=IF(D7=D12,TRUE,FALSE)</f>
+      </c>
+      <c r="E17" s="2">
+        <f>=IF(E7=E12,TRUE,FALSE)</f>
+      </c>
+      <c r="F17" s="2">
+        <f>=IF(F7=F12,TRUE,FALSE)</f>
+      </c>
+      <c r="G17" s="2">
+        <f>=IF(G7=G12,TRUE,FALSE)</f>
+      </c>
+      <c r="H17" s="2">
+        <f>=IF(H7=H12,TRUE,FALSE)</f>
+      </c>
+      <c r="I17" s="2">
+        <f>=IF(I7=I12,TRUE,FALSE)</f>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>21</v>
+      <c r="A18" s="2">
+        <f>=IF(A8=A13,TRUE,FALSE)</f>
+      </c>
+      <c r="B18" s="2">
+        <f>=IF(B8=B13,TRUE,FALSE)</f>
+      </c>
+      <c r="C18" s="2">
+        <f>=IF(C8=C13,TRUE,FALSE)</f>
+      </c>
+      <c r="D18" s="2">
+        <f>=IF(D8=D13,TRUE,FALSE)</f>
+      </c>
+      <c r="E18" s="2">
+        <f>=IF(E8=E13,TRUE,FALSE)</f>
+      </c>
+      <c r="F18" s="2">
+        <f>=IF(F8=F13,TRUE,FALSE)</f>
+      </c>
+      <c r="G18" s="2">
+        <f>=IF(G8=G13,TRUE,FALSE)</f>
+      </c>
+      <c r="H18" s="2">
+        <f>=IF(H8=H13,TRUE,FALSE)</f>
+      </c>
+      <c r="I18" s="2">
+        <f>=IF(I8=I13,TRUE,FALSE)</f>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2">
-        <f>=IF(A19=A24,TRUE,FALSE)</f>
-      </c>
-      <c r="B29" s="2">
-        <f>=IF(B19=B24,TRUE,FALSE)</f>
-      </c>
-      <c r="C29" s="2">
-        <f>=IF(C19=C24,TRUE,FALSE)</f>
-      </c>
-      <c r="D29" s="2">
-        <f>=IF(D19=D24,TRUE,FALSE)</f>
-      </c>
-      <c r="E29" s="2">
-        <f>=IF(E19=E24,TRUE,FALSE)</f>
-      </c>
-      <c r="F29" s="2">
-        <f>=IF(F19=F24,TRUE,FALSE)</f>
-      </c>
-      <c r="G29" s="2">
-        <f>=IF(G19=G24,TRUE,FALSE)</f>
-      </c>
-      <c r="H29" s="2">
-        <f>=IF(H19=H24,TRUE,FALSE)</f>
-      </c>
-      <c r="I29" s="2">
-        <f>=IF(I19=I24,TRUE,FALSE)</f>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2">
-        <f>=IF(A20=A25,TRUE,FALSE)</f>
-      </c>
-      <c r="B30" s="2">
-        <f>=IF(B20=B25,TRUE,FALSE)</f>
-      </c>
-      <c r="C30" s="2">
-        <f>=IF(C20=C25,TRUE,FALSE)</f>
-      </c>
-      <c r="D30" s="2">
-        <f>=IF(D20=D25,TRUE,FALSE)</f>
-      </c>
-      <c r="E30" s="2">
-        <f>=IF(E20=E25,TRUE,FALSE)</f>
-      </c>
-      <c r="F30" s="2">
-        <f>=IF(F20=F25,TRUE,FALSE)</f>
-      </c>
-      <c r="G30" s="2">
-        <f>=IF(G20=G25,TRUE,FALSE)</f>
-      </c>
-      <c r="H30" s="2">
-        <f>=IF(H20=H25,TRUE,FALSE)</f>
-      </c>
-      <c r="I30" s="2">
-        <f>=IF(I20=I25,TRUE,FALSE)</f>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2">
-        <f>=IF(A21=A26,TRUE,FALSE)</f>
-      </c>
-      <c r="B31" s="2">
-        <f>=IF(B21=B26,TRUE,FALSE)</f>
-      </c>
-      <c r="C31" s="2">
-        <f>=IF(C21=C26,TRUE,FALSE)</f>
-      </c>
-      <c r="D31" s="2">
-        <f>=IF(D21=D26,TRUE,FALSE)</f>
-      </c>
-      <c r="E31" s="2">
-        <f>=IF(E21=E26,TRUE,FALSE)</f>
-      </c>
-      <c r="F31" s="2">
-        <f>=IF(F21=F26,TRUE,FALSE)</f>
-      </c>
-      <c r="G31" s="2">
-        <f>=IF(G21=G26,TRUE,FALSE)</f>
-      </c>
-      <c r="H31" s="2">
-        <f>=IF(H21=H26,TRUE,FALSE)</f>
-      </c>
-      <c r="I31" s="2">
-        <f>=IF(I21=I26,TRUE,FALSE)</f>
+      <c r="A19" s="2">
+        <f>=IF(A9=A14,TRUE,FALSE)</f>
+      </c>
+      <c r="B19" s="2">
+        <f>=IF(B9=B14,TRUE,FALSE)</f>
+      </c>
+      <c r="C19" s="2">
+        <f>=IF(C9=C14,TRUE,FALSE)</f>
+      </c>
+      <c r="D19" s="2">
+        <f>=IF(D9=D14,TRUE,FALSE)</f>
+      </c>
+      <c r="E19" s="2">
+        <f>=IF(E9=E14,TRUE,FALSE)</f>
+      </c>
+      <c r="F19" s="2">
+        <f>=IF(F9=F14,TRUE,FALSE)</f>
+      </c>
+      <c r="G19" s="2">
+        <f>=IF(G9=G14,TRUE,FALSE)</f>
+      </c>
+      <c r="H19" s="2">
+        <f>=IF(H9=H14,TRUE,FALSE)</f>
+      </c>
+      <c r="I19" s="2">
+        <f>=IF(I9=I14,TRUE,FALSE)</f>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A13:I15">
+  <conditionalFormatting sqref="A17:I19">
     <cfRule priority="1" type="cellIs" operator="equal" dxfId="0">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:I31">
-    <cfRule priority="2" type="cellIs" operator="equal" dxfId="0">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2514,10 +2179,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" customHeight="1" defaultColWidth="9.57"/>
+  <sheetFormatPr defaultRowHeight="13.5" defaultColWidth="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="1" width="10.3" customWidth="1" style="1"/>
+    <col min="2" max="2" width="10.3" customWidth="1" style="1"/>
+    <col min="3" max="3" width="10.3" customWidth="1" style="1"/>
+    <col min="4" max="4" width="10.3" customWidth="1" style="1"/>
+    <col min="5" max="5" width="10.3" customWidth="1" style="1"/>
+    <col min="6" max="6" width="10.3" customWidth="1" style="1"/>
+    <col min="7" max="7" width="10.3" customWidth="1" style="1"/>
+    <col min="8" max="8" width="10.3" customWidth="1" style="1"/>
+    <col min="9" max="9" width="10.3" customWidth="1" style="1"/>
+    <col min="10" max="10" width="10.3" customWidth="1" style="1"/>
+    <col min="11" max="11" width="10.3" customWidth="1" style="1"/>
+    <col min="12" max="12" width="10.3" customWidth="1" style="1"/>
+    <col min="13" max="13" width="10.3" customWidth="1" style="1"/>
+    <col min="14" max="14" width="10.3" customWidth="1" style="1"/>
+    <col min="15" max="15" width="10.3" customWidth="1" style="1"/>
+    <col min="16" max="16" width="10.3" customWidth="1" style="1"/>
+    <col min="17" max="17" width="10.3" customWidth="1" style="1"/>
+    <col min="18" max="18" width="10.3" customWidth="1" style="1"/>
+    <col min="19" max="16384" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2547,278 +2229,278 @@
   <sheetData>
     <row r="1" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
